--- a/biology/Botanique/Alghero_Torbato/Alghero_Torbato.xlsx
+++ b/biology/Botanique/Alghero_Torbato/Alghero_Torbato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Alghero Torbato est un vin italien de la région Sardaigne doté d'une appellation DOC depuis le 19 août 1995. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Sassari dans les communes de Alghero, Olmedo, Ossi, Tissi, Usini, Uri, Ittiri ainsi qu'en partie dans la commune de Sassari.
 Voir aussi l'article Alghero Torbato spumante.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: jaune paille avec des reflets verdâtres
 odeur: intense,  caractéristique, légèrement aromatique
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres : 
 Sassari  (1996/97)  13822,9</t>
